--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B201A0C-0257-4CFD-953D-75B8E70F891E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92572939-4CE0-4638-A557-8AA688F7BAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11160" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>212.000</t>
   </si>
   <si>
-    <t>20%</t>
-  </si>
-  <si>
     <t>329.000</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
     <t>235.000</t>
   </si>
   <si>
-    <t>10%</t>
-  </si>
-  <si>
     <t>294.000</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvkvokxfr460b.webp</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>-10%</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -403,6 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -718,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0496FC-16B7-4A21-8716-53BF8FEFD78D}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +778,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -795,138 +796,138 @@
         <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
@@ -935,33 +936,33 @@
         <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
@@ -970,33 +971,33 @@
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
@@ -1005,33 +1006,33 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
@@ -1040,33 +1041,33 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>24</v>
@@ -1075,30 +1076,30 @@
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>24</v>
@@ -1107,30 +1108,30 @@
         <v>14</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>24</v>
@@ -1139,30 +1140,30 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>24</v>
@@ -1171,30 +1172,30 @@
         <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>24</v>
@@ -1203,30 +1204,30 @@
         <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>24</v>
@@ -1235,8 +1236,260 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92572939-4CE0-4638-A557-8AA688F7BAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7ABC9E-1BB5-42B9-80E2-A2765DAF8092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11160" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Hình ảnh</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Tiktok</t>
   </si>
   <si>
-    <t>[Nguyên trái] Sầu Riêng chính tự nhiên Ri6 DannyGreen 1.8 – 2.2kg</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -87,25 +84,13 @@
     <t>[HỎNG 1 ĐỔI 1]Dưa Lê Hữu Cơ Hồng Kim DannyGreen 1.3 - 1.5Kg</t>
   </si>
   <si>
-    <t>[MUA 1 TẶNG 1] Trái Dừa Xiêm Gọt Kim Cương Ngược DannyGreen</t>
-  </si>
-  <si>
     <t>Mua 1 trái tặng 1 trái</t>
-  </si>
-  <si>
-    <t>[MUA 1 TẶNG 1] Trái dừa xiêm nút DANNYGREEN</t>
-  </si>
-  <si>
-    <t>[MUA COMBO 2 SIZE M TẶNG 1 SIZE S] Bí Hạt Đậu Hữu Cơ DannyGreen Size S</t>
   </si>
   <si>
     <t>Mua combo 2 size M 
 tặng 1 size S</t>
   </si>
   <si>
-    <t>[MUA COMBO 2 SIZE M TẶNG 1 SIZE S] Bí Hạt Đậu Hữu Cơ DannyGreen Size M</t>
-  </si>
-  <si>
     <t>[MUA 1 TẶNG 1] Rau Muống Hữu Cơ DannyGreen | Túi 300g</t>
   </si>
   <si>
@@ -196,30 +181,6 @@
     <t>37.000</t>
   </si>
   <si>
-    <t>92.000</t>
-  </si>
-  <si>
-    <t>73.000</t>
-  </si>
-  <si>
-    <t>66.000</t>
-  </si>
-  <si>
-    <t>59.000</t>
-  </si>
-  <si>
-    <t>132.000</t>
-  </si>
-  <si>
-    <t>103.000</t>
-  </si>
-  <si>
-    <t>94.000</t>
-  </si>
-  <si>
-    <t>85.000</t>
-  </si>
-  <si>
     <t>63.000</t>
   </si>
   <si>
@@ -326,6 +287,30 @@
   </si>
   <si>
     <t>-10%</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Sầu riêng Ri6 Hữu Cơ Chín Tự Nhiên DannyGreen 1.8 – 2.2Kg</t>
+  </si>
+  <si>
+    <t>[TẶNG 1 Trái Size S] Combo 2 Bí Hạt Đậu Hữu Cơ Size M</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>206000</t>
+  </si>
+  <si>
+    <t>188000</t>
+  </si>
+  <si>
+    <t>169200</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Dừa Xiêm Gọt Kim Cương Ngược Xuất Khẩu DannyGreen</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Dừa Xiêm Nút Xuất Khẩu DannyGreen</t>
   </si>
 </sst>
 </file>
@@ -393,7 +378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -403,7 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0496FC-16B7-4A21-8716-53BF8FEFD78D}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,718 +762,683 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="H15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16" s="5"/>
+      <c r="H16"/>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="5"/>
+      <c r="H17"/>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="5"/>
+      <c r="H18"/>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="5"/>
+      <c r="H19"/>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="5"/>
+      <c r="H20"/>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="5"/>
+      <c r="H21"/>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="5"/>
+      <c r="H22"/>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
+      <c r="H23"/>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="5"/>
+      <c r="H24"/>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="5"/>
+      <c r="H25"/>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="5"/>
+      <c r="H26"/>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="5"/>
+      <c r="H27"/>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
+      <c r="H28"/>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="5"/>
+      <c r="H29"/>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="5"/>
+      <c r="H30"/>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="5"/>
+      <c r="H31"/>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="5"/>
+      <c r="H32"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H33" s="5"/>
+      <c r="H33"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H34" s="5"/>
+      <c r="H34"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="5"/>
+      <c r="H35"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="5"/>
+      <c r="H36"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="5"/>
+      <c r="H37"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H38" s="5"/>
+      <c r="H38"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H39" s="5"/>
+      <c r="H39"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H40" s="5"/>
+      <c r="H40"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="5"/>
+      <c r="H41"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="5"/>
+      <c r="H42"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H43" s="5"/>
+      <c r="H43"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H44" s="5"/>
+      <c r="H44"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H45" s="5"/>
+      <c r="H45"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H46" s="5"/>
+      <c r="H46"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H47" s="5"/>
+      <c r="H47"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H48" s="5"/>
+      <c r="H48"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H49" s="5"/>
+      <c r="H49"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H50" s="5"/>
+      <c r="H50"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H51" s="5"/>
+      <c r="H51"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H52" s="5"/>
+      <c r="H52"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H53" s="5"/>
+      <c r="H53"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H54" s="5"/>
+      <c r="H54"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H55" s="5"/>
+      <c r="H55"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H56" s="5"/>
+      <c r="H56"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H57" s="5"/>
+      <c r="H57"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H58" s="5"/>
+      <c r="H58"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H59" s="5"/>
+      <c r="H59"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H60" s="5"/>
+      <c r="H60"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H61" s="5"/>
+      <c r="H61"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H62" s="5"/>
+      <c r="H62"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H63" s="5"/>
+      <c r="H63"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H64" s="5"/>
+      <c r="H64"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H65" s="5"/>
+      <c r="H65"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H66" s="5"/>
+      <c r="H66"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H67" s="5"/>
+      <c r="H67"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H68" s="5"/>
+      <c r="H68"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H69" s="5"/>
+      <c r="H69"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H70" s="5"/>
+      <c r="H70"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H71" s="5"/>
+      <c r="H71"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H72" s="5"/>
+      <c r="H72"/>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H73" s="5"/>
+      <c r="H73"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H74" s="5"/>
+      <c r="H74"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H75" s="5"/>
+      <c r="H75"/>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H76" s="5"/>
+      <c r="H76"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H77" s="5"/>
+      <c r="H77"/>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H78" s="5"/>
+      <c r="H78"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H79" s="5"/>
+      <c r="H79"/>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H80" s="5"/>
+      <c r="H80"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="5"/>
+      <c r="H81"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="5"/>
+      <c r="H82"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="5"/>
+      <c r="H83"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="5"/>
+      <c r="H84"/>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="5"/>
+      <c r="H85"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="5"/>
+      <c r="H86"/>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="5"/>
+      <c r="H87"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="5"/>
+      <c r="H88"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="5"/>
+      <c r="H89"/>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" s="5"/>
+      <c r="H90"/>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="5"/>
+      <c r="H91"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="5"/>
+      <c r="H92"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="5"/>
+      <c r="H93"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="5"/>
+      <c r="H94"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" s="5"/>
+      <c r="H95"/>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" s="5"/>
+      <c r="H96"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="5"/>
+      <c r="H97"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="5"/>
+      <c r="H98"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7ABC9E-1BB5-42B9-80E2-A2765DAF8092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CCA92-89DE-4999-9113-9C95DDBB16BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
   <si>
     <t>Hình ảnh</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>[HỎNG 1 ĐỔI 1] Dưa Lưới Hữu Cơ Biển Ngọc Bích DannyGreen 1.6 - 1.9Kg</t>
-  </si>
-  <si>
-    <t>[HỎNG 1 ĐỔI 1]Dưa Lê Hữu Cơ Hồng Kim DannyGreen 1.3 - 1.5Kg</t>
   </si>
   <si>
     <t>Mua 1 trái tặng 1 trái</t>
@@ -311,6 +308,48 @@
   </si>
   <si>
     <t>[MUA 1 TẶNG 1] Dừa Xiêm Nút Xuất Khẩu DannyGreen</t>
+  </si>
+  <si>
+    <t>https://dannygreen.vn/wp-content/uploads/2024/12/29.-Dau-Bap-Huu-Co-DannyGreen-FM.png</t>
+  </si>
+  <si>
+    <t>32.400</t>
+  </si>
+  <si>
+    <t>36.000</t>
+  </si>
+  <si>
+    <t>40.000</t>
+  </si>
+  <si>
+    <t>https://dannygreen.vn/wp-content/uploads/2024/12/thanh-nhan-huu-co.jpg</t>
+  </si>
+  <si>
+    <t>116.000</t>
+  </si>
+  <si>
+    <t>91.000</t>
+  </si>
+  <si>
+    <t>83.000</t>
+  </si>
+  <si>
+    <t>74.700</t>
+  </si>
+  <si>
+    <t>https://dannygreen.vn/wp-content/uploads/2024/12/21.-Sau-Rieng-Monthong-DannyGreen-FM.png</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Đậu Bắp Hữu Cơ DannyGreen 300g</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Sầu Riêng Monthong DannyGreen</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Dưa Lê Hữu Cơ Hồng Kim DannyGreen 1.3 - 1.5Kg</t>
+  </si>
+  <si>
+    <t>[HỎNG 1 ĐỔI 1] Thanh Nhãn Hữu Cơ DannyGreen 500g</t>
   </si>
 </sst>
 </file>
@@ -378,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -387,6 +426,15 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -703,29 +751,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0496FC-16B7-4A21-8716-53BF8FEFD78D}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -760,692 +808,778 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>82</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H20"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H21"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H22"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H23"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H24"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H25"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H26"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H27"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H28"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H29"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H30"/>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H31"/>
     </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H32"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H33"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H34"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H35"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H36"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H37"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H38"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H39"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H40"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H41"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H42"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H43"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H44"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H45"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H46"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H47"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H48"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H49"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H50"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H51"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H52"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H53"/>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H54"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H55"/>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H56"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H57"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H58"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H59"/>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H60"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H61"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H62"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H63"/>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H64"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H65"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H66"/>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H67"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H68"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H69"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H70"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H71"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H72"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H73"/>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H74"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H75"/>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H76"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H77"/>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H78"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H79"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H80"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H81"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H82"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H83"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H84"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H85"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H86"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H87"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H88"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H89"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H90"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H91"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H92"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H93"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H94"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H95"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H96"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H97"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H98"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H101"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{175DF883-EE9B-49C6-B6F1-C907C8BA8B54}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{C73AC681-15AA-4ADE-AD98-5A54AE1305E9}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{F2CE013C-C353-4BB6-B134-4A4BA95A6408}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{983BED54-6988-44D3-AAF5-C2A67D974925}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{175DF883-EE9B-49C6-B6F1-C907C8BA8B54}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{C73AC681-15AA-4ADE-AD98-5A54AE1305E9}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{F2CE013C-C353-4BB6-B134-4A4BA95A6408}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{983BED54-6988-44D3-AAF5-C2A67D974925}"/>
+    <hyperlink ref="A11" r:id="rId5" xr:uid="{4106E16D-0ED3-49A6-80BA-441019346635}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{93106266-E8EE-4CD1-B3F0-9599C43B08A7}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{B8A4DA3C-63AF-49A9-B2A1-0F6B8B134835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072CCA92-89DE-4999-9113-9C95DDBB16BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2601003-97DE-423E-A462-B6A77C6FDC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
+    <workbookView xWindow="915" yWindow="2798" windowWidth="17280" windowHeight="9982" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,9 +310,6 @@
     <t>[MUA 1 TẶNG 1] Dừa Xiêm Nút Xuất Khẩu DannyGreen</t>
   </si>
   <si>
-    <t>https://dannygreen.vn/wp-content/uploads/2024/12/29.-Dau-Bap-Huu-Co-DannyGreen-FM.png</t>
-  </si>
-  <si>
     <t>32.400</t>
   </si>
   <si>
@@ -340,16 +337,19 @@
     <t>https://dannygreen.vn/wp-content/uploads/2024/12/21.-Sau-Rieng-Monthong-DannyGreen-FM.png</t>
   </si>
   <si>
-    <t>[MUA 1 TẶNG 1] Đậu Bắp Hữu Cơ DannyGreen 300g</t>
-  </si>
-  <si>
     <t>[HỎNG 1 ĐỔI 1] Sầu Riêng Monthong DannyGreen</t>
   </si>
   <si>
     <t>[HỎNG 1 ĐỔI 1] Dưa Lê Hữu Cơ Hồng Kim DannyGreen 1.3 - 1.5Kg</t>
   </si>
   <si>
-    <t>[HỎNG 1 ĐỔI 1] Thanh Nhãn Hữu Cơ DannyGreen 500g</t>
+    <t>[HỎNG 1 ĐỔI 1] Thanh Nhãn Hữu Cơ DannyGreen 1kg</t>
+  </si>
+  <si>
+    <t>[MUA 1 TẶNG 1] Đậu Bắp Hữu Cơ DannyGreen 500g</t>
+  </si>
+  <si>
+    <t>https://down-vn.img.susercontent.com/file/vn-11134207-7ras8-mdo0cqekb0dt62.webp</t>
   </si>
 </sst>
 </file>
@@ -427,13 +427,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -754,7 +754,7 @@
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -810,10 +810,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -943,7 +943,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>35</v>
@@ -972,22 +972,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>82</v>
@@ -1106,22 +1106,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>82</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LearningSpace\dannyGreen_livestreamdeal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2601003-97DE-423E-A462-B6A77C6FDC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B782393-456C-442B-92E6-458C241A3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="2798" windowWidth="17280" windowHeight="9982" xr2:uid="{AD7A8270-FB9B-4B81-9199-B40BD875551E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>Hình ảnh</t>
   </si>
@@ -84,10 +84,6 @@
     <t>Mua 1 trái tặng 1 trái</t>
   </si>
   <si>
-    <t>Mua combo 2 size M 
-tặng 1 size S</t>
-  </si>
-  <si>
     <t>[MUA 1 TẶNG 1] Rau Muống Hữu Cơ DannyGreen | Túi 300g</t>
   </si>
   <si>
@@ -208,9 +204,6 @@
     <t>https://vn.shp.ee/Njar4iG</t>
   </si>
   <si>
-    <t>https://vn.shp.ee/QFTNYyM</t>
-  </si>
-  <si>
     <t>https://vn.shp.ee/YKT3uWQ</t>
   </si>
   <si>
@@ -238,9 +231,6 @@
     <t>https://vt.tiktok.com/ZSHt2r2sNCmTX-aCNr3/</t>
   </si>
   <si>
-    <t>https://vt.tiktok.com/ZSHt2rrQopFue-Hz9EI/</t>
-  </si>
-  <si>
     <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1jxlaa5atj42.webp</t>
   </si>
   <si>
@@ -259,9 +249,6 @@
     <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1qkngx7uo65b.webp</t>
   </si>
   <si>
-    <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-me1qz4gbnn5w6b.webp</t>
-  </si>
-  <si>
     <t>https://down-vn.img.susercontent.com/file/vn-11134207-820l4-mdvksvcsqcxu54.webp</t>
   </si>
   <si>
@@ -287,21 +274,6 @@
   </si>
   <si>
     <t>[HỎNG 1 ĐỔI 1] Sầu riêng Ri6 Hữu Cơ Chín Tự Nhiên DannyGreen 1.8 – 2.2Kg</t>
-  </si>
-  <si>
-    <t>[TẶNG 1 Trái Size S] Combo 2 Bí Hạt Đậu Hữu Cơ Size M</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>206000</t>
-  </si>
-  <si>
-    <t>188000</t>
-  </si>
-  <si>
-    <t>169200</t>
   </si>
   <si>
     <t>[MUA 1 TẶNG 1] Dừa Xiêm Gọt Kim Cương Ngược Xuất Khẩu DannyGreen</t>
@@ -417,12 +389,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -751,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0496FC-16B7-4A21-8716-53BF8FEFD78D}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -774,226 +743,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>100</v>
+      <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>68</v>
+      <c r="A3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>69</v>
+      <c r="A4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>94</v>
+      <c r="A7" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1001,25 +970,25 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
@@ -1028,33 +997,33 @@
         <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
@@ -1063,305 +1032,273 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>104</v>
+      <c r="A11" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H32"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.45">
@@ -1567,9 +1504,6 @@
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H100"/>
-    </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H101"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1577,7 +1511,7 @@
     <hyperlink ref="K8" r:id="rId2" xr:uid="{C73AC681-15AA-4ADE-AD98-5A54AE1305E9}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{F2CE013C-C353-4BB6-B134-4A4BA95A6408}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{983BED54-6988-44D3-AAF5-C2A67D974925}"/>
-    <hyperlink ref="A11" r:id="rId5" xr:uid="{4106E16D-0ED3-49A6-80BA-441019346635}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{4106E16D-0ED3-49A6-80BA-441019346635}"/>
     <hyperlink ref="A7" r:id="rId6" xr:uid="{93106266-E8EE-4CD1-B3F0-9599C43B08A7}"/>
     <hyperlink ref="A2" r:id="rId7" xr:uid="{B8A4DA3C-63AF-49A9-B2A1-0F6B8B134835}"/>
   </hyperlinks>
